--- a/TP4-Coloreo/TP4/TP4-Grafos/Documentacion/Análisis Estadístico.xlsx
+++ b/TP4-Coloreo/TP4/TP4-Grafos/Documentacion/Análisis Estadístico.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Caso 40% Adyacencia" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Caso 90% Adyacencia" sheetId="3" r:id="rId3"/>
     <sheet name="Grafos Regulares" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L17"/>
 </workbook>
 </file>
 
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,12 +149,6 @@
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,9 +173,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -231,6 +223,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,14 +242,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -275,7 +279,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -374,6 +377,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06BE-41E7-9DDA-D7895B5DCFA8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -409,7 +417,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -449,7 +456,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -474,9 +480,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -503,7 +509,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -644,6 +649,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-368E-4DF5-B798-C3FF212C65F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -679,7 +689,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -714,7 +723,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -739,9 +747,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -773,7 +781,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -956,6 +963,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-855A-4C0D-B26B-E93E573BE5FF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -991,7 +1003,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1026,7 +1037,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1051,9 +1061,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1080,7 +1090,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1173,6 +1182,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC72-41E4-ADC5-91FC876F247B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1213,7 +1227,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1253,7 +1266,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1278,9 +1290,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1307,7 +1319,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1412,6 +1423,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D68D-49CE-83E5-E610837BC890}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1451,7 +1467,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1491,7 +1506,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1516,9 +1530,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1550,7 +1564,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1667,6 +1680,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9453-420F-ABA4-ED2880F469A4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1707,7 +1725,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1747,7 +1764,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1772,9 +1788,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1801,7 +1817,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1918,6 +1933,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D20-49D9-B619-57A8EF240218}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1953,7 +1973,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1993,7 +2012,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2018,9 +2036,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2047,7 +2065,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2170,6 +2187,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81D3-4A8E-A167-9CFABFAACCE0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2205,7 +2227,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2245,7 +2266,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2270,9 +2290,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2304,7 +2324,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2469,6 +2488,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1CD-4265-B4DD-72DC7B7B2E1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2504,7 +2528,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2539,7 +2562,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2564,9 +2586,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2593,7 +2615,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2734,6 +2755,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A19E-4E8F-999C-63E2CE0428DB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2769,7 +2795,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2804,7 +2829,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2829,9 +2853,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2858,7 +2882,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3035,6 +3058,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7E3-4719-8448-34EB122ED83C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3070,7 +3098,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3105,7 +3132,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3146,7 +3172,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="2" name="1 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3176,7 +3208,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvPr id="3" name="2 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3206,7 +3244,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvPr id="4" name="3 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3241,7 +3285,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="2" name="1 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3271,7 +3321,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvPr id="3" name="2 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3301,7 +3357,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvPr id="4" name="3 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3336,7 +3398,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="2" name="1 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3366,7 +3434,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvPr id="3" name="2 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3396,7 +3470,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvPr id="4" name="3 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3431,7 +3511,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="2" name="1 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3461,7 +3547,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvPr id="5" name="4 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3522,7 +3614,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3555,9 +3647,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3590,6 +3699,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3768,7 +3894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -3779,355 +3905,355 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>63</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>6</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>64</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>115</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>65</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>943</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>66</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>2805</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>67</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>3591</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>68</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>1994</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>69</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>497</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>70</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>48</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>71</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="41">
         <v>7068</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>61</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>5</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>62</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>121</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>63</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>1081</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>64</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>3363</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>65</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>3595</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <v>66</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>1559</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <v>67</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>253</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
+      <c r="B36" s="10">
         <v>68</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="40">
         <v>3715</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="14"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="14"/>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="17">
+      <c r="B46" s="15">
         <v>65</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="15">
         <v>3</v>
       </c>
-      <c r="F46" s="14"/>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="17">
+      <c r="B47" s="15">
         <v>66</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="15">
         <v>28</v>
       </c>
-      <c r="F47" s="14"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="17">
+      <c r="B48" s="15">
         <v>67</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="15">
         <v>324</v>
       </c>
-      <c r="F48" s="14"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="17">
+      <c r="B49" s="15">
         <v>68</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="15">
         <v>1487</v>
       </c>
-      <c r="F49" s="14"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="17">
+      <c r="B50" s="15">
         <v>69</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="15">
         <v>3215</v>
       </c>
-      <c r="F50" s="14"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="17">
+      <c r="B51" s="15">
         <v>70</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="15">
         <v>3134</v>
       </c>
-      <c r="F51" s="14"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="17">
+      <c r="B52" s="15">
         <v>71</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="15">
         <v>1451</v>
       </c>
-      <c r="F52" s="14"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="17">
+      <c r="B53" s="15">
         <v>72</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="15">
         <v>316</v>
       </c>
-      <c r="F53" s="14"/>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="17">
+      <c r="B54" s="15">
         <v>73</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="15">
         <v>40</v>
       </c>
-      <c r="F54" s="14"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="17">
+      <c r="B55" s="15">
         <v>74</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="44">
+      <c r="B57" s="41">
         <v>8852</v>
       </c>
     </row>
@@ -4145,7 +4271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B47" sqref="B47:C60"/>
     </sheetView>
   </sheetViews>
@@ -4156,432 +4282,432 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
+      <c r="B10" s="20">
         <v>98</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="20">
         <v>1</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
+      <c r="B11" s="20">
         <v>99</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>29</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
+      <c r="B12" s="20">
         <v>100</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>177</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+      <c r="B13" s="20">
         <v>101</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>647</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+      <c r="B14" s="20">
         <v>102</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>1624</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="23">
+      <c r="B15" s="20">
         <v>103</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <v>2466</v>
       </c>
-      <c r="F15" s="45"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="23">
+      <c r="B16" s="20">
         <v>104</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>2497</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
+      <c r="B17" s="20">
         <v>105</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <v>1658</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="23">
+      <c r="B18" s="20">
         <v>106</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <v>694</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <v>107</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <v>166</v>
       </c>
-      <c r="F19" s="45"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="23">
+      <c r="B20" s="20">
         <v>108</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <v>35</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="23">
+      <c r="B21" s="20">
         <v>109</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="43">
         <v>3462</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+      <c r="B28" s="22">
         <v>94</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="22">
         <v>1</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="25">
+      <c r="B29" s="22">
         <v>95</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="22">
         <v>2</v>
       </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="25">
+      <c r="B30" s="22">
         <v>96</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="22">
         <v>29</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="25">
+      <c r="B31" s="22">
         <v>97</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="22">
         <v>182</v>
       </c>
-      <c r="F31" s="45"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="25">
+      <c r="B32" s="22">
         <v>98</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="22">
         <v>819</v>
       </c>
-      <c r="F32" s="45"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="25">
+      <c r="B33" s="22">
         <v>99</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="22">
         <v>2208</v>
       </c>
-      <c r="F33" s="45"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="25">
+      <c r="B34" s="22">
         <v>100</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="22">
         <v>3051</v>
       </c>
-      <c r="F34" s="45"/>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="25">
+      <c r="B35" s="22">
         <v>101</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="22">
         <v>2319</v>
       </c>
-      <c r="F35" s="45"/>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="25">
+      <c r="B36" s="22">
         <v>102</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="22">
         <v>1082</v>
       </c>
-      <c r="F36" s="45"/>
+      <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="25">
+      <c r="B37" s="22">
         <v>103</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="22">
         <v>268</v>
       </c>
-      <c r="F37" s="45"/>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="25">
+      <c r="B38" s="22">
         <v>104</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="22">
         <v>37</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="42">
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="39">
         <v>105</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="45">
+      <c r="B41" s="42">
         <v>6184</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="27"/>
+      <c r="C44" s="24"/>
     </row>
     <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="29"/>
+      <c r="C45" s="26"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="45"/>
+      <c r="F47" s="42"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="30">
+      <c r="B48" s="27">
         <v>102</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="27">
         <v>6</v>
       </c>
-      <c r="F48" s="45"/>
+      <c r="F48" s="42"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="30">
+      <c r="B49" s="27">
         <v>103</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="27">
         <v>30</v>
       </c>
-      <c r="F49" s="45"/>
+      <c r="F49" s="42"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="30">
+      <c r="B50" s="27">
         <v>104</v>
       </c>
-      <c r="C50" s="30">
+      <c r="C50" s="27">
         <v>127</v>
       </c>
-      <c r="F50" s="45"/>
+      <c r="F50" s="42"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="30">
+      <c r="B51" s="27">
         <v>105</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="27">
         <v>578</v>
       </c>
-      <c r="F51" s="45"/>
+      <c r="F51" s="42"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="30">
+      <c r="B52" s="27">
         <v>106</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="27">
         <v>1468</v>
       </c>
-      <c r="F52" s="45"/>
+      <c r="F52" s="42"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="30">
+      <c r="B53" s="27">
         <v>107</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="27">
         <v>2334</v>
       </c>
-      <c r="F53" s="45"/>
+      <c r="F53" s="42"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="30">
+      <c r="B54" s="27">
         <v>108</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="27">
         <v>2536</v>
       </c>
-      <c r="F54" s="45"/>
+      <c r="F54" s="42"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="30">
+      <c r="B55" s="27">
         <v>109</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="27">
         <v>1783</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="42"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="30">
+      <c r="B56" s="27">
         <v>110</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="27">
         <v>835</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="F56" s="42"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="30">
+      <c r="B57" s="27">
         <v>111</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="27">
         <v>253</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="42"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="30">
+      <c r="B58" s="27">
         <v>112</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="27">
         <v>44</v>
       </c>
-      <c r="F58" s="45"/>
+      <c r="F58" s="42"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="30">
+      <c r="B59" s="27">
         <v>113</v>
       </c>
-      <c r="C59" s="30">
+      <c r="C59" s="27">
         <v>5</v>
       </c>
-      <c r="F59" s="45"/>
+      <c r="F59" s="42"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="30">
+      <c r="B60" s="27">
         <v>114</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="45" t="s">
+      <c r="A62" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="46">
+      <c r="B62" s="43">
         <v>4375</v>
       </c>
     </row>
@@ -4609,633 +4735,633 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="36">
+      <c r="B9" s="33">
         <v>198</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="33">
         <v>1</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="36">
+      <c r="B10" s="33">
         <v>199</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="33">
         <v>9</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="36">
+      <c r="B11" s="33">
         <v>200</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="33">
         <v>34</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="36">
+      <c r="B12" s="33">
         <v>201</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="33">
         <v>105</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="36">
+      <c r="B13" s="33">
         <v>202</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="33">
         <v>213</v>
       </c>
-      <c r="F13" s="47"/>
+      <c r="F13" s="44"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="36">
+      <c r="B14" s="33">
         <v>203</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="33">
         <v>430</v>
       </c>
-      <c r="F14" s="47"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="36">
+      <c r="B15" s="33">
         <v>204</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="33">
         <v>786</v>
       </c>
-      <c r="F15" s="47"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="36">
+      <c r="B16" s="33">
         <v>205</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="33">
         <v>1127</v>
       </c>
-      <c r="F16" s="47"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="36">
+      <c r="B17" s="33">
         <v>206</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="33">
         <v>1457</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="36">
+      <c r="B18" s="33">
         <v>207</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="33">
         <v>1470</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="36">
+      <c r="B19" s="33">
         <v>208</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="33">
         <v>1425</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="36">
+      <c r="B20" s="33">
         <v>209</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="33">
         <v>1192</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="36">
+      <c r="B21" s="33">
         <v>210</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="33">
         <v>814</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="44"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="36">
+      <c r="B22" s="33">
         <v>211</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="33">
         <v>495</v>
       </c>
-      <c r="F22" s="47"/>
+      <c r="F22" s="44"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="36">
+      <c r="B23" s="33">
         <v>212</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="33">
         <v>240</v>
       </c>
-      <c r="F23" s="47"/>
+      <c r="F23" s="44"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="36">
+      <c r="B24" s="33">
         <v>213</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="33">
         <v>126</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="36">
+      <c r="B25" s="33">
         <v>214</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="33">
         <v>49</v>
       </c>
-      <c r="F25" s="47"/>
+      <c r="F25" s="44"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="36">
+      <c r="B26" s="33">
         <v>215</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="33">
         <v>21</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="44"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="36">
+      <c r="B27" s="33">
         <v>216</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="33">
         <v>5</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="44"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="36">
+      <c r="B28" s="33">
         <v>217</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="45">
         <v>5233</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
-    </row>
-    <row r="32" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="48"/>
+    <row r="31" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="45"/>
+    </row>
+    <row r="32" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="45"/>
     </row>
     <row r="34" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="47"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="38">
+      <c r="B37" s="35">
         <v>192</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="35">
         <v>2</v>
       </c>
-      <c r="E37" s="47"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="38">
+      <c r="B38" s="35">
         <v>193</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="35">
         <v>14</v>
       </c>
-      <c r="E38" s="47"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="38">
+      <c r="B39" s="35">
         <v>194</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="35">
         <v>45</v>
       </c>
-      <c r="E39" s="47"/>
+      <c r="E39" s="44"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="38">
+      <c r="B40" s="35">
         <v>195</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="35">
         <v>145</v>
       </c>
-      <c r="E40" s="47"/>
+      <c r="E40" s="44"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="38">
+      <c r="B41" s="35">
         <v>196</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="35">
         <v>361</v>
       </c>
-      <c r="E41" s="47"/>
+      <c r="E41" s="44"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="38">
+      <c r="B42" s="35">
         <v>197</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="35">
         <v>797</v>
       </c>
-      <c r="E42" s="47"/>
+      <c r="E42" s="44"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="38">
+      <c r="B43" s="35">
         <v>198</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="35">
         <v>1337</v>
       </c>
-      <c r="E43" s="47"/>
+      <c r="E43" s="44"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="38">
+      <c r="B44" s="35">
         <v>199</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="35">
         <v>1757</v>
       </c>
-      <c r="E44" s="47"/>
+      <c r="E44" s="44"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="38">
+      <c r="B45" s="35">
         <v>200</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="35">
         <v>1921</v>
       </c>
-      <c r="E45" s="47"/>
+      <c r="E45" s="44"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="38">
+      <c r="B46" s="35">
         <v>201</v>
       </c>
-      <c r="C46" s="38">
+      <c r="C46" s="35">
         <v>1590</v>
       </c>
-      <c r="E46" s="47"/>
+      <c r="E46" s="44"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="38">
+      <c r="B47" s="35">
         <v>202</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="35">
         <v>1068</v>
       </c>
-      <c r="E47" s="47"/>
+      <c r="E47" s="44"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="38">
+      <c r="B48" s="35">
         <v>203</v>
       </c>
-      <c r="C48" s="38">
+      <c r="C48" s="35">
         <v>597</v>
       </c>
-      <c r="E48" s="47"/>
+      <c r="E48" s="44"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="38">
+      <c r="B49" s="35">
         <v>204</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="35">
         <v>249</v>
       </c>
-      <c r="E49" s="47"/>
+      <c r="E49" s="44"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="38">
+      <c r="B50" s="35">
         <v>205</v>
       </c>
-      <c r="C50" s="38">
+      <c r="C50" s="35">
         <v>86</v>
       </c>
-      <c r="E50" s="47"/>
-    </row>
-    <row r="51" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="42">
+      <c r="E50" s="44"/>
+    </row>
+    <row r="51" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="39">
         <v>206</v>
       </c>
-      <c r="C51" s="42">
+      <c r="C51" s="39">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="38">
+      <c r="B52" s="35">
         <v>207</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52" s="35">
         <v>2</v>
       </c>
-      <c r="E52" s="47"/>
+      <c r="E52" s="44"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="44">
         <v>6702</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="39"/>
+      <c r="C57" s="36"/>
     </row>
     <row r="58" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="41"/>
+      <c r="C58" s="38"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="47"/>
+      <c r="F60" s="44"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="42">
+      <c r="B61" s="39">
         <v>204</v>
       </c>
-      <c r="C61" s="42">
+      <c r="C61" s="39">
         <v>1</v>
       </c>
-      <c r="F61" s="47"/>
+      <c r="F61" s="44"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="42">
+      <c r="B62" s="39">
         <v>205</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="39">
         <v>1</v>
       </c>
-      <c r="F62" s="47"/>
+      <c r="F62" s="44"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="42">
+      <c r="B63" s="39">
         <v>206</v>
       </c>
-      <c r="C63" s="42">
+      <c r="C63" s="39">
         <v>1</v>
       </c>
-      <c r="F63" s="47"/>
+      <c r="F63" s="44"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="42">
+      <c r="B64" s="39">
         <v>207</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C64" s="39">
         <v>7</v>
       </c>
-      <c r="F64" s="47"/>
+      <c r="F64" s="44"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="42">
+      <c r="B65" s="39">
         <v>208</v>
       </c>
-      <c r="C65" s="42">
+      <c r="C65" s="39">
         <v>35</v>
       </c>
-      <c r="F65" s="47"/>
+      <c r="F65" s="44"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="42">
+      <c r="B66" s="39">
         <v>209</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="39">
         <v>86</v>
       </c>
-      <c r="F66" s="47"/>
+      <c r="F66" s="44"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="42">
+      <c r="B67" s="39">
         <v>210</v>
       </c>
-      <c r="C67" s="42">
+      <c r="C67" s="39">
         <v>199</v>
       </c>
-      <c r="F67" s="47"/>
+      <c r="F67" s="44"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="42">
+      <c r="B68" s="39">
         <v>211</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="39">
         <v>420</v>
       </c>
-      <c r="F68" s="47"/>
+      <c r="F68" s="44"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="42">
+      <c r="B69" s="39">
         <v>212</v>
       </c>
-      <c r="C69" s="42">
+      <c r="C69" s="39">
         <v>755</v>
       </c>
-      <c r="F69" s="47"/>
+      <c r="F69" s="44"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="42">
+      <c r="B70" s="39">
         <v>213</v>
       </c>
-      <c r="C70" s="42">
+      <c r="C70" s="39">
         <v>1155</v>
       </c>
-      <c r="F70" s="47"/>
+      <c r="F70" s="44"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="42">
+      <c r="B71" s="39">
         <v>214</v>
       </c>
-      <c r="C71" s="42">
+      <c r="C71" s="39">
         <v>1460</v>
       </c>
-      <c r="F71" s="47"/>
+      <c r="F71" s="44"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="42">
+      <c r="B72" s="39">
         <v>215</v>
       </c>
-      <c r="C72" s="42">
+      <c r="C72" s="39">
         <v>1539</v>
       </c>
-      <c r="F72" s="47"/>
+      <c r="F72" s="44"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="42">
+      <c r="B73" s="39">
         <v>216</v>
       </c>
-      <c r="C73" s="42">
+      <c r="C73" s="39">
         <v>1513</v>
       </c>
-      <c r="F73" s="47"/>
+      <c r="F73" s="44"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="42">
+      <c r="B74" s="39">
         <v>217</v>
       </c>
-      <c r="C74" s="42">
+      <c r="C74" s="39">
         <v>1226</v>
       </c>
-      <c r="F74" s="47"/>
+      <c r="F74" s="44"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="42">
+      <c r="B75" s="39">
         <v>218</v>
       </c>
-      <c r="C75" s="42">
+      <c r="C75" s="39">
         <v>811</v>
       </c>
-      <c r="F75" s="47"/>
+      <c r="F75" s="44"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="42">
+      <c r="B76" s="39">
         <v>219</v>
       </c>
-      <c r="C76" s="42">
+      <c r="C76" s="39">
         <v>417</v>
       </c>
-      <c r="F76" s="47"/>
+      <c r="F76" s="44"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="42">
+      <c r="B77" s="39">
         <v>220</v>
       </c>
-      <c r="C77" s="42">
+      <c r="C77" s="39">
         <v>241</v>
       </c>
-      <c r="F77" s="47"/>
+      <c r="F77" s="44"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="42">
+      <c r="B78" s="39">
         <v>221</v>
       </c>
-      <c r="C78" s="42">
+      <c r="C78" s="39">
         <v>77</v>
       </c>
-      <c r="F78" s="47"/>
-    </row>
-    <row r="79" spans="2:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="42">
+      <c r="F78" s="44"/>
+    </row>
+    <row r="79" spans="2:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="39">
         <v>222</v>
       </c>
-      <c r="C79" s="42">
+      <c r="C79" s="39">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="2:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="42">
+    <row r="80" spans="2:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="39">
         <v>223</v>
       </c>
-      <c r="C80" s="42">
+      <c r="C80" s="39">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="42">
+    <row r="81" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="39">
         <v>224</v>
       </c>
-      <c r="C81" s="42">
+      <c r="C81" s="39">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="42">
+      <c r="B82" s="39">
         <v>225</v>
       </c>
-      <c r="C82" s="42">
+      <c r="C82" s="39">
         <v>1</v>
       </c>
-      <c r="F82" s="47"/>
+      <c r="F82" s="44"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F83" s="47"/>
+      <c r="F83" s="44"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="48">
+      <c r="B84" s="45">
         <v>8596</v>
       </c>
-      <c r="F84" s="47"/>
+      <c r="F84" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5250,7 +5376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
@@ -5260,418 +5386,418 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="47"/>
+      <c r="C5" s="44"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="47"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="42">
+      <c r="B9" s="39">
         <v>179</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="39">
         <v>56</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="42">
+      <c r="B10" s="39">
         <v>180</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="39">
         <v>385</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="42">
+      <c r="B11" s="39">
         <v>181</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="39">
         <v>1029</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="42">
+      <c r="B12" s="39">
         <v>182</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="39">
         <v>1689</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="42">
+      <c r="B13" s="39">
         <v>183</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="39">
         <v>1852</v>
       </c>
-      <c r="E13" s="47"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="42">
+      <c r="B14" s="39">
         <v>184</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="39">
         <v>1613</v>
       </c>
-      <c r="E14" s="47"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="42">
+      <c r="B15" s="39">
         <v>185</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="39">
         <v>1329</v>
       </c>
-      <c r="E15" s="47"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="42">
+      <c r="B16" s="39">
         <v>186</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="39">
         <v>921</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="42">
+      <c r="B17" s="39">
         <v>187</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="39">
         <v>556</v>
       </c>
-      <c r="E17" s="47"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="42">
+      <c r="B18" s="39">
         <v>188</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="39">
         <v>324</v>
       </c>
-      <c r="E18" s="47"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="42">
+      <c r="B19" s="39">
         <v>189</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="39">
         <v>154</v>
       </c>
-      <c r="E19" s="47"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="42">
+      <c r="B20" s="39">
         <v>190</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="39">
         <v>61</v>
       </c>
-      <c r="E20" s="47"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="42">
+      <c r="B21" s="39">
         <v>191</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="39">
         <v>22</v>
       </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="42">
+      <c r="B22" s="39">
         <v>192</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="39">
         <v>5</v>
       </c>
-      <c r="E22" s="47"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="42">
+      <c r="B23" s="39">
         <v>193</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="39">
         <v>2</v>
       </c>
-      <c r="E23" s="47"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="42">
+      <c r="B24" s="39">
         <v>194</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="44"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="42">
+      <c r="B35" s="39">
         <v>271</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="39">
         <v>1</v>
       </c>
-      <c r="F35" s="47"/>
+      <c r="F35" s="44"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="42">
+      <c r="B36" s="39">
         <v>273</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="39">
         <v>4</v>
       </c>
-      <c r="F36" s="47"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="42">
+      <c r="B37" s="39">
         <v>274</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="39">
         <v>15</v>
       </c>
-      <c r="F37" s="47"/>
+      <c r="F37" s="44"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="42">
+      <c r="B38" s="39">
         <v>275</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="39">
         <v>85</v>
       </c>
-      <c r="F38" s="47"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="42">
+      <c r="B39" s="39">
         <v>276</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="39">
         <v>181</v>
       </c>
-      <c r="F39" s="47"/>
+      <c r="F39" s="44"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="42">
+      <c r="B40" s="39">
         <v>277</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="39">
         <v>396</v>
       </c>
-      <c r="F40" s="47"/>
+      <c r="F40" s="44"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="42">
+      <c r="B41" s="39">
         <v>278</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="39">
         <v>587</v>
       </c>
-      <c r="F41" s="47"/>
+      <c r="F41" s="44"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="42">
+      <c r="B42" s="39">
         <v>279</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="39">
         <v>1034</v>
       </c>
-      <c r="F42" s="47"/>
+      <c r="F42" s="44"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="42">
+      <c r="B43" s="39">
         <v>280</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="39">
         <v>1254</v>
       </c>
-      <c r="F43" s="47"/>
+      <c r="F43" s="44"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="42">
+      <c r="B44" s="39">
         <v>281</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="39">
         <v>1372</v>
       </c>
-      <c r="F44" s="47"/>
+      <c r="F44" s="44"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="42">
+      <c r="B45" s="39">
         <v>282</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="39">
         <v>1303</v>
       </c>
-      <c r="F45" s="47"/>
+      <c r="F45" s="44"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="42">
+      <c r="B46" s="39">
         <v>283</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="39">
         <v>1107</v>
       </c>
-      <c r="F46" s="47"/>
+      <c r="F46" s="44"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="42">
+      <c r="B47" s="39">
         <v>284</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="39">
         <v>902</v>
       </c>
-      <c r="F47" s="47"/>
+      <c r="F47" s="44"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="42">
+      <c r="B48" s="39">
         <v>285</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="39">
         <v>648</v>
       </c>
-      <c r="F48" s="47"/>
+      <c r="F48" s="44"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="42">
+      <c r="B49" s="39">
         <v>286</v>
       </c>
-      <c r="C49" s="42">
+      <c r="C49" s="39">
         <v>455</v>
       </c>
-      <c r="F49" s="47"/>
+      <c r="F49" s="44"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="42">
+      <c r="B50" s="39">
         <v>287</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="39">
         <v>248</v>
       </c>
-      <c r="F50" s="47"/>
+      <c r="F50" s="44"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="42">
+      <c r="B51" s="39">
         <v>288</v>
       </c>
-      <c r="C51" s="42">
+      <c r="C51" s="39">
         <v>136</v>
       </c>
-      <c r="F51" s="47"/>
+      <c r="F51" s="44"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="42">
+      <c r="B52" s="39">
         <v>289</v>
       </c>
-      <c r="C52" s="42">
+      <c r="C52" s="39">
         <v>92</v>
       </c>
-      <c r="F52" s="47"/>
+      <c r="F52" s="44"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="42">
+      <c r="B53" s="39">
         <v>290</v>
       </c>
-      <c r="C53" s="42">
+      <c r="C53" s="39">
         <v>41</v>
       </c>
-      <c r="F53" s="47"/>
+      <c r="F53" s="44"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="42">
+      <c r="B54" s="39">
         <v>291</v>
       </c>
-      <c r="C54" s="42">
+      <c r="C54" s="39">
         <v>21</v>
       </c>
-      <c r="F54" s="47"/>
+      <c r="F54" s="44"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="49">
+      <c r="B55" s="46">
         <v>292</v>
       </c>
-      <c r="C55" s="49">
+      <c r="C55" s="46">
         <v>11</v>
       </c>
-      <c r="F55" s="47"/>
+      <c r="F55" s="44"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="49">
+      <c r="B56" s="46">
         <v>293</v>
       </c>
-      <c r="C56" s="49">
+      <c r="C56" s="46">
         <v>5</v>
       </c>
-      <c r="F56" s="47"/>
+      <c r="F56" s="44"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="49">
+      <c r="B57" s="46">
         <v>294</v>
       </c>
-      <c r="C57" s="49">
+      <c r="C57" s="46">
         <v>2</v>
       </c>
-      <c r="F57" s="47"/>
+      <c r="F57" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
